--- a/ExplorerFund/NetValue/Information of found.xlsx
+++ b/ExplorerFund/NetValue/Information of found.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405" activeTab="3"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>日期</t>
   </si>
@@ -34,19 +34,34 @@
     <t>周收益率%</t>
   </si>
   <si>
+    <t>股东权益</t>
+  </si>
+  <si>
+    <t>股东总股数</t>
+  </si>
+  <si>
+    <t>股东净值</t>
+  </si>
+  <si>
+    <t>基金权益</t>
+  </si>
+  <si>
+    <t>基金总股数</t>
+  </si>
+  <si>
+    <t>基金净值</t>
+  </si>
+  <si>
     <t>11月份结算</t>
   </si>
   <si>
-    <t>12月份结算</t>
+    <t>新总值</t>
   </si>
   <si>
     <t>资金出入</t>
   </si>
   <si>
     <t>新入基金份数</t>
-  </si>
-  <si>
-    <t>基金净值</t>
   </si>
   <si>
     <t>资金出入者</t>
@@ -61,6 +76,9 @@
     <t>LF</t>
   </si>
   <si>
+    <t>CJ</t>
+  </si>
+  <si>
     <t>小计</t>
   </si>
   <si>
@@ -71,9 +89,6 @@
   </si>
   <si>
     <t>新入股东份数</t>
-  </si>
-  <si>
-    <t>股东净值</t>
   </si>
   <si>
     <t>持有者BDY</t>
@@ -192,15 +207,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -241,6 +256,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -255,8 +286,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,9 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,9 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +348,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -309,17 +370,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,46 +379,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -385,13 +400,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,25 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,25 +502,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,55 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,19 +568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,11 +588,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,39 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,6 +667,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,10 +872,10 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1210,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1221,11 +1236,11 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="14.375" customWidth="1"/>
@@ -1237,7 +1252,7 @@
     <col min="19" max="19" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1268,24 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="6">
@@ -1265,7 +1297,24 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="F2" s="4">
+        <v>800000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
@@ -1282,10 +1331,27 @@
       <c r="D3" s="9">
         <v>65702.65</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="E3" s="9">
+        <v>8.21</v>
+      </c>
+      <c r="F3" s="4">
+        <v>865702.65</v>
+      </c>
+      <c r="G3" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H3">
+        <v>1.0821</v>
+      </c>
+      <c r="I3" s="4">
+        <v>500000</v>
+      </c>
+      <c r="J3" s="4">
+        <v>500000</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1302,9 +1368,24 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="F4" s="4">
+        <v>991786.59</v>
+      </c>
+      <c r="G4" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H4">
+        <v>1.2397</v>
+      </c>
+      <c r="I4" s="4">
+        <v>893447.14</v>
+      </c>
+      <c r="J4" s="4">
+        <v>822018.44</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.0869</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="P4" s="4"/>
@@ -1318,7 +1399,9 @@
       <c r="E5" s="9"/>
       <c r="G5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>1.0869</v>
+      </c>
       <c r="M5" s="13"/>
       <c r="N5" s="4"/>
       <c r="P5" s="13"/>
@@ -1335,9 +1418,24 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="G6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="F6" s="4">
+        <v>1006028.12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H6">
+        <v>1.2575</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1050517.06</v>
+      </c>
+      <c r="J6" s="4">
+        <v>958941.73</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.0955</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="P6" s="4"/>
@@ -1345,7 +1443,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="10">
         <v>2056545.18</v>
@@ -1357,12 +1455,24 @@
         <v>190842.53</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="F7" s="11">
+        <v>1006028.12</v>
+      </c>
+      <c r="G7" s="11">
+        <v>800000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.2575</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1050517.06</v>
+      </c>
+      <c r="J7" s="11">
+        <v>958941.73</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.0955</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1386,7 +1496,24 @@
         <v>44191.15</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="4">
+        <v>1026721.04</v>
+      </c>
+      <c r="G9" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H9">
+        <v>1.2836</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1066343.2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>958941.73</v>
+      </c>
+      <c r="K9">
+        <v>1.112</v>
+      </c>
       <c r="M9" s="14"/>
       <c r="N9" s="4"/>
       <c r="P9" s="4"/>
@@ -1406,8 +1533,24 @@
         <v>92262.59</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="4">
+        <v>1093858.2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H10">
+        <v>1.3673</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1099139.01</v>
+      </c>
+      <c r="J10" s="4">
+        <v>958941.73</v>
+      </c>
+      <c r="K10">
+        <v>1.1462</v>
+      </c>
       <c r="M10" s="14"/>
       <c r="N10" s="4"/>
       <c r="P10" s="4"/>
@@ -1426,12 +1569,27 @@
       <c r="D11" s="9">
         <v>78014</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="E11" s="9">
+        <v>3.56</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1144503.28</v>
+      </c>
+      <c r="G11" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H11">
+        <v>1.4306</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1126509.64</v>
+      </c>
+      <c r="J11" s="4">
+        <v>958941.73</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.1747</v>
+      </c>
       <c r="M11" s="14"/>
       <c r="N11" s="4"/>
       <c r="P11" s="4"/>
@@ -1444,9 +1602,24 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="F12" s="4">
+        <v>1144503.28</v>
+      </c>
+      <c r="G12" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H12">
+        <v>1.4306</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1446509.64</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1231351.71</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.1747</v>
+      </c>
       <c r="M12" s="14"/>
       <c r="N12" s="4"/>
       <c r="P12" s="4"/>
@@ -1465,11 +1638,27 @@
       <c r="D13" s="9">
         <v>29915.37</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="E13" s="9">
+        <v>1.15</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1162768.97</v>
+      </c>
+      <c r="G13" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H13">
+        <v>1.4535</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1458159.32</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1231351.71</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.1842</v>
+      </c>
       <c r="M13" s="14"/>
       <c r="N13" s="4"/>
       <c r="P13" s="4"/>
@@ -1479,17 +1668,30 @@
       <c r="B14" s="9">
         <v>2770928.29</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="4">
+        <v>1162768.97</v>
+      </c>
+      <c r="G14" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H14">
+        <v>1.4535</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1608159.32</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1358019.5</v>
+      </c>
+      <c r="K14">
+        <v>1.1842</v>
+      </c>
       <c r="M14" s="14"/>
       <c r="N14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>20161230</v>
-      </c>
+    <row r="15" spans="2:11">
       <c r="B15" s="9">
         <v>2854917.61</v>
       </c>
@@ -1499,49 +1701,204 @@
       <c r="D15" s="9">
         <v>83989.32</v>
       </c>
+      <c r="F15" s="4">
+        <v>1212629.43</v>
+      </c>
+      <c r="G15" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H15">
+        <v>1.5158</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1642288.17</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1358019.5</v>
+      </c>
+      <c r="K15">
+        <v>1.2093</v>
+      </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>20170103</v>
       </c>
       <c r="B16" s="10">
-        <v>2854917.61</v>
+        <v>3004917.61</v>
       </c>
-      <c r="C16" s="10">
-        <v>584917.61</v>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="F16" s="4">
+        <v>1212629.43</v>
       </c>
-      <c r="D16" s="1">
-        <f>SUM(D9:D15)</f>
-        <v>328372.43</v>
+      <c r="G16" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H16">
+        <v>1.5158</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1792288.17</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1482058.2</v>
+      </c>
+      <c r="K16">
+        <v>1.2093</v>
       </c>
     </row>
-    <row r="18" spans="6:9">
-      <c r="F18" s="4"/>
-      <c r="I18" s="4"/>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>20170105</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3035627.2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1230552.72</v>
+      </c>
+      <c r="G17" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H17">
+        <v>1.5382</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1805074.48</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1482058.2</v>
+      </c>
+      <c r="K17">
+        <v>1.218</v>
+      </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="9"/>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3335627.2</v>
+      </c>
+      <c r="D18" s="4">
+        <v>30709.59</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1230552.72</v>
+      </c>
+      <c r="G18" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H18">
+        <v>1.5382</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2105074.48</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1728363.62</v>
+      </c>
+      <c r="K18">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>20170116</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3446153.77</v>
+      </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9">
+        <v>110526.57</v>
+      </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="F19" s="4">
+        <v>1292267</v>
+      </c>
+      <c r="G19" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H19">
+        <v>1.6153</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2153886.74</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1728363.62</v>
+      </c>
+      <c r="K19">
+        <v>1.2462</v>
+      </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>20170120</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3625218.51</v>
+      </c>
+      <c r="C20" s="9">
+        <v>905218.51</v>
+      </c>
+      <c r="D20" s="9">
+        <v>179064.74</v>
+      </c>
       <c r="E20" s="9"/>
-      <c r="F20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="F20" s="4">
+        <v>1392989.46</v>
+      </c>
+      <c r="G20" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H20">
+        <v>1.7412</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2232229.05</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1728363.62</v>
+      </c>
+      <c r="K20">
+        <v>1.2915</v>
+      </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20170126</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3745015.14</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1025015.14</v>
+      </c>
+      <c r="D21" s="9">
+        <v>119796.63</v>
+      </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="4">
+        <v>1461199.26</v>
+      </c>
+      <c r="G21" s="4">
+        <v>800000</v>
+      </c>
+      <c r="H21">
+        <v>1.8265</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2283815.87</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1728363.62</v>
+      </c>
+      <c r="K21">
+        <v>1.3214</v>
+      </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="9"/>
@@ -1777,7 +2134,7 @@
   <dimension ref="A1:XFD56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1795,16 +2152,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1830,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1847,7 +2204,7 @@
         <v>1.08689428551669</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:5">
@@ -1861,7 +2218,7 @@
         <v>1.0869</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1878,7 +2235,7 @@
         <v>1.0955</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1895,7 +2252,7 @@
         <v>1.1747</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1912,7 +2269,7 @@
         <v>1.1842</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
@@ -1929,7 +2286,7 @@
         <v>1.2093</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -18324,7 +18681,9 @@
       <c r="D10" s="5">
         <v>1.218</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -34707,7 +35066,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B2:B10)</f>
@@ -34758,25 +35117,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -34812,25 +35171,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -34886,25 +35245,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -34988,16 +35347,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -35025,8 +35384,8 @@
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -35043,103 +35402,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>910028</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>910019</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>910063</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>468138</v>
@@ -35150,39 +35509,39 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>910085</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>910017</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
